--- a/nivan/assignment1/grading.xlsx
+++ b/nivan/assignment1/grading.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Problem 1</t>
   </si>
@@ -159,6 +159,42 @@
   </si>
   <si>
     <t>3 (general idea, but code does not work)</t>
+  </si>
+  <si>
+    <t>10 (Fabios Solution?)</t>
+  </si>
+  <si>
+    <t>1 (the code did not work. The code is complex, I did not follow the code)</t>
+  </si>
+  <si>
+    <t>8 (general idea correct, but wrong check in the end)</t>
+  </si>
+  <si>
+    <t>3 (seems that you did not understand the concept of jolly)</t>
+  </si>
+  <si>
+    <t>9 (need to convert inputs to integers)</t>
+  </si>
+  <si>
+    <t>9 (any sequence with a single number is jolly!)</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>All your python files have merge conflicts, you should be careful when using more than one machine to work on the assignment.</t>
+  </si>
+  <si>
+    <t>7 (write idea, but logic is wrong! And any sequence with a single number is jolly!)</t>
+  </si>
+  <si>
+    <t>9 (the first element of the sequence is the sequence size and fails for sequences with only one element)</t>
+  </si>
+  <si>
+    <t>5 (seems that you did not understand well the concept of jolly, the code does not work in general)</t>
+  </si>
+  <si>
+    <t>9 (Missing indentation in the nested for's)</t>
   </si>
 </sst>
 </file>
@@ -174,12 +210,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,8 +236,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,19 +519,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="52.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="109.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -498,279 +543,385 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
         <v>10</v>
       </c>
     </row>

--- a/nivan/assignment1/grading.xlsx
+++ b/nivan/assignment1/grading.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>Problem 1</t>
   </si>
@@ -161,12 +161,6 @@
     <t>3 (general idea, but code does not work)</t>
   </si>
   <si>
-    <t>10 (Fabios Solution?)</t>
-  </si>
-  <si>
-    <t>1 (the code did not work. The code is complex, I did not follow the code)</t>
-  </si>
-  <si>
     <t>8 (general idea correct, but wrong check in the end)</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>9 (any sequence with a single number is jolly!)</t>
   </si>
   <si>
-    <t>Obs</t>
-  </si>
-  <si>
     <t>All your python files have merge conflicts, you should be careful when using more than one machine to work on the assignment.</t>
   </si>
   <si>
@@ -195,6 +186,39 @@
   </si>
   <si>
     <t>9 (Missing indentation in the nested for's)</t>
+  </si>
+  <si>
+    <t>0 (No Code)</t>
+  </si>
+  <si>
+    <t>1 (the code did not work even for the second sample input given.)</t>
+  </si>
+  <si>
+    <t>0 (Can't make code to run! Does not accept command   line input)</t>
+  </si>
+  <si>
+    <t>None of your programs accepts inputs as asked in the assignment</t>
+  </si>
+  <si>
+    <t>0 (Can't make code to run! )</t>
+  </si>
+  <si>
+    <t>7 (returns the wrong result for some of the results provided)</t>
+  </si>
+  <si>
+    <t>0 (Can't make code to run!  Does not accept inputs from command line)</t>
+  </si>
+  <si>
+    <t>O (No Code)</t>
+  </si>
+  <si>
+    <t>5 (Code does not work with all the provided inputs, returns errors)</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>5 (returns no values or wrong values for some inputs)</t>
   </si>
 </sst>
 </file>
@@ -210,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,9 +266,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,411 +562,549 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="52.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="61.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="109.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D28" s="2">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="D34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>10</v>
-      </c>
+      <c r="B35" s="2">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nivan/assignment1/grading.xlsx
+++ b/nivan/assignment1/grading.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>Problem 1</t>
   </si>
@@ -137,88 +138,88 @@
     <t>yz1897</t>
   </si>
   <si>
-    <t>0 (no code)</t>
-  </si>
-  <si>
-    <t>9 (simple error on the bounds)</t>
-  </si>
-  <si>
-    <t>9 (input from command line)</t>
-  </si>
-  <si>
-    <t>8 (simple error on the bounds and input from command line)</t>
-  </si>
-  <si>
-    <t>9 (does not accept input)</t>
-  </si>
-  <si>
-    <t>1 (general idea, but code does not work)</t>
-  </si>
-  <si>
-    <t>5 (almost complete solution, but does not work)</t>
-  </si>
-  <si>
-    <t>3 (general idea, but code does not work)</t>
-  </si>
-  <si>
-    <t>8 (general idea correct, but wrong check in the end)</t>
-  </si>
-  <si>
-    <t>3 (seems that you did not understand the concept of jolly)</t>
-  </si>
-  <si>
-    <t>9 (need to convert inputs to integers)</t>
-  </si>
-  <si>
-    <t>9 (any sequence with a single number is jolly!)</t>
-  </si>
-  <si>
-    <t>All your python files have merge conflicts, you should be careful when using more than one machine to work on the assignment.</t>
-  </si>
-  <si>
-    <t>7 (write idea, but logic is wrong! And any sequence with a single number is jolly!)</t>
-  </si>
-  <si>
-    <t>9 (the first element of the sequence is the sequence size and fails for sequences with only one element)</t>
-  </si>
-  <si>
-    <t>5 (seems that you did not understand well the concept of jolly, the code does not work in general)</t>
-  </si>
-  <si>
-    <t>9 (Missing indentation in the nested for's)</t>
-  </si>
-  <si>
-    <t>0 (No Code)</t>
-  </si>
-  <si>
-    <t>1 (the code did not work even for the second sample input given.)</t>
-  </si>
-  <si>
-    <t>0 (Can't make code to run! Does not accept command   line input)</t>
-  </si>
-  <si>
     <t>None of your programs accepts inputs as asked in the assignment</t>
   </si>
   <si>
-    <t>0 (Can't make code to run! )</t>
-  </si>
-  <si>
-    <t>7 (returns the wrong result for some of the results provided)</t>
-  </si>
-  <si>
-    <t>0 (Can't make code to run!  Does not accept inputs from command line)</t>
-  </si>
-  <si>
-    <t>O (No Code)</t>
-  </si>
-  <si>
-    <t>5 (Code does not work with all the provided inputs, returns errors)</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>5 (returns no values or wrong values for some inputs)</t>
+    <t>Remarks Problem 1</t>
+  </si>
+  <si>
+    <t>Remarks Problem 2</t>
+  </si>
+  <si>
+    <t>Remarks Problem 3</t>
+  </si>
+  <si>
+    <t>Further Remarks</t>
+  </si>
+  <si>
+    <t>All your python files have merge conflicts, and don't run without removing these conflicts</t>
+  </si>
+  <si>
+    <t>No Code</t>
+  </si>
+  <si>
+    <t>Can't make code to run! Does not accept command   line input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can't make code to run! </t>
+  </si>
+  <si>
+    <t>returns the wrong result for some of the results provided</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
+    <t>simple error on the bounds</t>
+  </si>
+  <si>
+    <t>vague idea, but code does not work</t>
+  </si>
+  <si>
+    <t>simple error on the bounds and input from command line</t>
+  </si>
+  <si>
+    <t>returns no values or wrong values for some inputs</t>
+  </si>
+  <si>
+    <t>the code did not work even for the second sample input given</t>
+  </si>
+  <si>
+    <t>does not aceept input from command line</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general idea correct, but wrong check in the end</t>
+  </si>
+  <si>
+    <t>Can't make code to run! Does not accept command line input</t>
+  </si>
+  <si>
+    <t>wrong implementation</t>
+  </si>
+  <si>
+    <t>need to convert inputs to integer</t>
+  </si>
+  <si>
+    <t>almost complete solution, but does not work</t>
+  </si>
+  <si>
+    <t>any sequence with a single number is jolly!</t>
+  </si>
+  <si>
+    <t>the first element is the sequence size and fails for sequences with only one element</t>
+  </si>
+  <si>
+    <t>write idea, but logic is wrong! And any sequence with a single number is jolly!</t>
+  </si>
+  <si>
+    <t>does not accept input</t>
+  </si>
+  <si>
+    <t>Missing indentation in the nested for's</t>
   </si>
 </sst>
 </file>
@@ -560,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,10 +572,14 @@
     <col min="2" max="2" width="52.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.453125" customWidth="1"/>
     <col min="4" max="4" width="61.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="109.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -585,26 +590,50 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -617,9 +646,13 @@
       <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <f>SUM(B3:D3)</f>
+        <v>30</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -629,17 +662,24 @@
       <c r="C4" s="2">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E35" si="0">SUM(B4:D4)</f>
+        <v>20</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
+      <c r="B5" s="2">
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -647,59 +687,90 @@
       <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>55</v>
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
+      <c r="B9" s="2">
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -707,9 +778,15 @@
       <c r="D9" s="2">
         <v>10</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -719,27 +796,46 @@
       <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -749,29 +845,49 @@
       <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -781,27 +897,46 @@
       <c r="C14" s="2">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -814,56 +949,89 @@
       <c r="D16" s="2">
         <v>10</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="2">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9</v>
       </c>
       <c r="D19" s="2">
         <v>10</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -873,57 +1041,92 @@
       <c r="C20" s="2">
         <v>10</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>38</v>
+      <c r="B21" s="2">
+        <v>9</v>
       </c>
       <c r="C21" s="2">
         <v>10</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D21" s="2">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>10</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
+      <c r="C23" s="2">
+        <v>7</v>
       </c>
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -933,27 +1136,46 @@
       <c r="C24" s="2">
         <v>10</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -963,57 +1185,88 @@
       <c r="C26" s="2">
         <v>10</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>51</v>
+      <c r="C28" s="2">
+        <v>9</v>
       </c>
       <c r="D28" s="2">
         <v>10</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="2">
         <v>10</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>52</v>
+      <c r="C29" s="2">
+        <v>5</v>
       </c>
       <c r="D29" s="2">
         <v>10</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1026,9 +1279,13 @@
       <c r="D30" s="2">
         <v>10</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1041,24 +1298,38 @@
       <c r="D31" s="2">
         <v>10</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1068,27 +1339,46 @@
       <c r="C33" s="2">
         <v>10</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="2">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -1098,10 +1388,17 @@
       <c r="C35" s="2">
         <v>10</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="2"/>
+      <c r="D35" s="2">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
